--- a/Data/EC/NIT-9008668741.xlsx
+++ b/Data/EC/NIT-9008668741.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A5C378-4DDB-4DE7-8766-091AD00A79A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F16C7B-C92C-4610-BB41-CA072AFD4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6E04658-EAA1-4CAF-B782-EFFE71CD65DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22A260CC-D040-4B2B-81B0-3AC58595F4F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,28 +71,19 @@
     <t>CARMELO YESITH RUIZ CONTRERAS</t>
   </si>
   <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>84452910</t>
-  </si>
-  <si>
-    <t>JAVIER NARVAEZ ARAGON</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -191,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,23 +397,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +441,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A517EF03-177E-08C3-AF4A-4D051DC78D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448D151F-C91B-3FA0-194B-C8E0B0C99EA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,8 +848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F536B5-EE4C-42D1-99F6-4476EE3D5A93}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F0E31-0283-45BB-A951-422CE291A210}">
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -882,7 +873,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +918,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -959,12 +950,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>182809</v>
+        <v>181705</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +966,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1012,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1114,79 +1105,56 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="24">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="24">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="24">
-        <v>1104</v>
-      </c>
-      <c r="G21" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="32"/>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008668741.xlsx
+++ b/Data/EC/NIT-9008668741.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F16C7B-C92C-4610-BB41-CA072AFD4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A99EA93-8C69-4516-B391-9C836A3378FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22A260CC-D040-4B2B-81B0-3AC58595F4F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B2BFA0B-22C4-43F8-8DD6-A3312F3F7ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -182,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -391,29 +391,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,19 +432,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448D151F-C91B-3FA0-194B-C8E0B0C99EA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F45C7C7-A4B4-9557-2B39-FDBF53D67B79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F0E31-0283-45BB-A951-422CE291A210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6B7CF9-5418-4505-93DD-31558E2F426B}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -871,49 +877,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -921,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -937,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008668741</v>
       </c>
@@ -953,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>181705</v>
       </c>
@@ -1022,18 +1028,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>36341</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1045,18 +1051,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1068,18 +1074,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1091,47 +1097,47 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>36341</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>908526</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="26">
         <v>36341</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="26">
         <v>908526</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="34"/>
       <c r="H25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1139,10 +1145,10 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="34"/>
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
